--- a/simulationTesting/simulation-arguments.xlsx
+++ b/simulationTesting/simulation-arguments.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>df</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>case</t>
+  </si>
+  <si>
+    <t>sigma_t</t>
   </si>
 </sst>
 </file>
@@ -105,8 +108,72 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -151,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -171,6 +238,38 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -190,6 +289,38 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -465,15 +596,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,13 +621,16 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -506,20 +640,23 @@
       <c r="C2">
         <v>15</v>
       </c>
-      <c r="D2">
-        <v>0.5</v>
+      <c r="D2" s="2">
+        <v>0.25</v>
       </c>
       <c r="E2">
         <v>0.2</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2">
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -529,22 +666,25 @@
       <c r="C3">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>0.5</v>
+      <c r="D3" s="2">
+        <v>0.25</v>
       </c>
       <c r="E3">
         <v>0.2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3" t="s">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -552,247 +692,514 @@
       <c r="C4">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>0.5</v>
+      <c r="D4" s="2">
+        <v>0.25</v>
       </c>
       <c r="E4">
         <v>0.2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" t="s">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>50</v>
       </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>0.5</v>
-      </c>
-      <c r="E5">
-        <v>0.2</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="s">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="H6">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>0.5</v>
-      </c>
-      <c r="E6">
-        <v>0.2</v>
-      </c>
-      <c r="F6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E7">
+        <v>0.2</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7" t="s">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="H7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E8">
+        <v>0.2</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
         <v>60</v>
       </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>0.5</v>
-      </c>
-      <c r="E7">
-        <v>0.2</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E9">
+        <v>0.2</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9" t="s">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="H9">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>0.5</v>
-      </c>
-      <c r="E8">
-        <v>0.2</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D11" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E11">
+        <v>0.2</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11" t="s">
         <v>2</v>
       </c>
-      <c r="G8">
+      <c r="H11">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>0.5</v>
-      </c>
-      <c r="E9">
-        <v>0.2</v>
-      </c>
-      <c r="F9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E12">
+        <v>0.2</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12" t="s">
         <v>2</v>
       </c>
-      <c r="G9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E10">
-        <v>0.2</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E13">
+        <v>0.2</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E14">
+        <v>0.2</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E15">
+        <v>0.2</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15" t="s">
         <v>3</v>
       </c>
-      <c r="G10">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="H15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E16">
+        <v>0.2</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>0.2</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>0.2</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E18">
+        <v>0.2</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18" t="s">
         <v>3</v>
       </c>
-      <c r="G11">
+      <c r="H18">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="1">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="1">
         <v>0.1</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20" t="s">
         <v>5</v>
       </c>
-      <c r="G12">
+      <c r="H20">
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="1">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="1">
         <v>0.4</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21" t="s">
         <v>5</v>
       </c>
-      <c r="G13">
+      <c r="H21">
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="1">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E22" s="1">
         <v>0.8</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22" t="s">
         <v>5</v>
       </c>
-      <c r="G14">
+      <c r="H22">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/simulationTesting/simulation-arguments.xlsx
+++ b/simulationTesting/simulation-arguments.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="31080" yWindow="3540" windowWidth="30240" windowHeight="17260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,16 +44,16 @@
     <t>base</t>
   </si>
   <si>
-    <t>cv_obs</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
     <t>case</t>
   </si>
   <si>
-    <t>sigma_t</t>
+    <t>gp_sigma</t>
+  </si>
+  <si>
+    <t>sd_obs</t>
   </si>
 </sst>
 </file>
@@ -108,8 +108,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -218,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -270,6 +274,8 @@
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -321,6 +327,8 @@
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -599,7 +607,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -618,16 +626,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -641,7 +649,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0.2</v>
@@ -667,7 +675,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -693,7 +701,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0.2</v>
@@ -719,7 +727,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0.2</v>
@@ -745,7 +753,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>0.2</v>
@@ -771,7 +779,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>0.2</v>
@@ -797,7 +805,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0.2</v>
@@ -823,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>0.2</v>
@@ -849,7 +857,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0.2</v>
@@ -875,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0.2</v>
@@ -901,7 +909,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>0.2</v>
@@ -927,7 +935,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>0.2</v>
@@ -953,7 +961,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>0.2</v>
@@ -979,7 +987,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="1">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="E15">
         <v>0.2</v>
@@ -991,7 +999,7 @@
         <v>3</v>
       </c>
       <c r="H15">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1005,7 +1013,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0.2</v>
@@ -1017,7 +1025,7 @@
         <v>3</v>
       </c>
       <c r="H16">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1031,7 +1039,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>0.2</v>
@@ -1043,7 +1051,7 @@
         <v>3</v>
       </c>
       <c r="H17">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1057,7 +1065,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>0.2</v>
@@ -1069,7 +1077,7 @@
         <v>3</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1083,7 +1091,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1">
         <v>0.05</v>
@@ -1092,7 +1100,7 @@
         <v>0.5</v>
       </c>
       <c r="G19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <v>0.05</v>
@@ -1109,7 +1117,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
         <v>0.1</v>
@@ -1118,7 +1126,7 @@
         <v>0.5</v>
       </c>
       <c r="G20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H20">
         <v>0.1</v>
@@ -1135,7 +1143,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
         <v>0.4</v>
@@ -1144,7 +1152,7 @@
         <v>0.5</v>
       </c>
       <c r="G21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H21">
         <v>0.4</v>
@@ -1161,7 +1169,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1">
         <v>0.8</v>
@@ -1170,7 +1178,7 @@
         <v>0.5</v>
       </c>
       <c r="G22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H22">
         <v>0.8</v>
@@ -1187,7 +1195,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="2">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1">
         <v>1.2</v>
@@ -1196,7 +1204,7 @@
         <v>0.5</v>
       </c>
       <c r="G23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H23">
         <v>1.2</v>
